--- a/output/Tables/Linear/Modal shift/modalshift_1€_km_duration.xlsx
+++ b/output/Tables/Linear/Modal shift/modalshift_1€_km_duration.xlsx
@@ -406,13 +406,13 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.0445222121354782</v>
+        <v>0.3433584619329219</v>
       </c>
       <c r="B2">
-        <v>0.09155669313515019</v>
+        <v>0.7104552181894799</v>
       </c>
       <c r="C2">
-        <v>0.1781898728124484</v>
+        <v>1.433690731589519</v>
       </c>
       <c r="D2">
         <v>0.5</v>
@@ -421,13 +421,13 @@
         <v>0.1</v>
       </c>
       <c r="F2">
-        <v>0.5565276516934775</v>
+        <v>4.291980774161525</v>
       </c>
       <c r="G2">
-        <v>1.144458664189377</v>
+        <v>8.880690227368499</v>
       </c>
       <c r="H2">
-        <v>2.227373410155605</v>
+        <v>17.92113414486898</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -435,13 +435,13 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.05512918932989137</v>
+        <v>0.4228076976280861</v>
       </c>
       <c r="B3">
-        <v>0.09603440121893683</v>
+        <v>0.7414621157160803</v>
       </c>
       <c r="C3">
-        <v>0.1644379258745902</v>
+        <v>1.294165742103767</v>
       </c>
       <c r="D3">
         <v>0.5</v>
@@ -450,13 +450,13 @@
         <v>0.2</v>
       </c>
       <c r="F3">
-        <v>0.6891148666236422</v>
+        <v>5.285096220351077</v>
       </c>
       <c r="G3">
-        <v>1.20043001523671</v>
+        <v>9.268276446451004</v>
       </c>
       <c r="H3">
-        <v>2.055474073432378</v>
+        <v>16.17707177629709</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -464,13 +464,13 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.05806746369553484</v>
+        <v>0.4485078885751546</v>
       </c>
       <c r="B4">
-        <v>0.09397281675673337</v>
+        <v>0.7311925264267752</v>
       </c>
       <c r="C4">
-        <v>0.1497693514870122</v>
+        <v>1.169729586052255</v>
       </c>
       <c r="D4">
         <v>0.5</v>
@@ -479,13 +479,13 @@
         <v>0.3</v>
       </c>
       <c r="F4">
-        <v>0.7258432961941856</v>
+        <v>5.606348607189433</v>
       </c>
       <c r="G4">
-        <v>1.174660209459167</v>
+        <v>9.13990658033469</v>
       </c>
       <c r="H4">
-        <v>1.872116893587653</v>
+        <v>14.62161982565318</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -493,13 +493,13 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.06297866104324397</v>
+        <v>0.4846462461447995</v>
       </c>
       <c r="B5">
-        <v>0.09791653848883383</v>
+        <v>0.7579344187453106</v>
       </c>
       <c r="C5">
-        <v>0.1491903120489235</v>
+        <v>1.160427457225792</v>
       </c>
       <c r="D5">
         <v>0.5</v>
@@ -508,13 +508,13 @@
         <v>0.4</v>
       </c>
       <c r="F5">
-        <v>0.7872332630405496</v>
+        <v>6.058078076809994</v>
       </c>
       <c r="G5">
-        <v>1.223956731110423</v>
+        <v>9.474180234316384</v>
       </c>
       <c r="H5">
-        <v>1.864878900611544</v>
+        <v>14.50534321532241</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -522,13 +522,13 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.06579422151167982</v>
+        <v>0.5084450273982659</v>
       </c>
       <c r="B6">
-        <v>0.1015226341660816</v>
+        <v>0.7860827938451</v>
       </c>
       <c r="C6">
-        <v>0.1568827380754551</v>
+        <v>1.219586832383688</v>
       </c>
       <c r="D6">
         <v>0.5</v>
@@ -537,13 +537,13 @@
         <v>0.5</v>
       </c>
       <c r="F6">
-        <v>0.8224277688959979</v>
+        <v>6.355562842478324</v>
       </c>
       <c r="G6">
-        <v>1.26903292707602</v>
+        <v>9.826034923063752</v>
       </c>
       <c r="H6">
-        <v>1.961034225943189</v>
+        <v>15.2448354047961</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -551,13 +551,13 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>0.05883104524056001</v>
+        <v>0.4450289131175555</v>
       </c>
       <c r="B7">
-        <v>0.09435766113195745</v>
+        <v>0.7147115714952822</v>
       </c>
       <c r="C7">
-        <v>0.1485256519769664</v>
+        <v>1.130249774204242</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -566,13 +566,13 @@
         <v>0.1</v>
       </c>
       <c r="F7">
-        <v>0.7353880655070001</v>
+        <v>5.562861413969444</v>
       </c>
       <c r="G7">
-        <v>1.179470764149468</v>
+        <v>8.933894643691028</v>
       </c>
       <c r="H7">
-        <v>1.85657064971208</v>
+        <v>14.12812217755303</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -580,13 +580,13 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.06520631537695228</v>
+        <v>0.4934205400589566</v>
       </c>
       <c r="B8">
-        <v>0.09750027821691908</v>
+        <v>0.7378978598019137</v>
       </c>
       <c r="C8">
-        <v>0.1430360090289314</v>
+        <v>1.084353445681718</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -595,13 +595,13 @@
         <v>0.2</v>
       </c>
       <c r="F8">
-        <v>0.8150789422119035</v>
+        <v>6.167756750736958</v>
       </c>
       <c r="G8">
-        <v>1.218753477711489</v>
+        <v>9.223723247523921</v>
       </c>
       <c r="H8">
-        <v>1.787950112861643</v>
+        <v>13.55441807102148</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -609,13 +609,13 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>0.06684334274724345</v>
+        <v>0.5046274758401293</v>
       </c>
       <c r="B9">
-        <v>0.09472005503582168</v>
+        <v>0.7152006797290793</v>
       </c>
       <c r="C9">
-        <v>0.1301027275501283</v>
+        <v>0.9823628934508293</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -624,13 +624,13 @@
         <v>0.3</v>
       </c>
       <c r="F9">
-        <v>0.8355417843405432</v>
+        <v>6.307843448001617</v>
       </c>
       <c r="G9">
-        <v>1.184000687947771</v>
+        <v>8.940008496613492</v>
       </c>
       <c r="H9">
-        <v>1.626284094376603</v>
+        <v>12.27953616813537</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -638,13 +638,13 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>0.0712402022261879</v>
+        <v>0.5376839242600353</v>
       </c>
       <c r="B10">
-        <v>0.1014924885810402</v>
+        <v>0.7661361803671589</v>
       </c>
       <c r="C10">
-        <v>0.1413106703227045</v>
+        <v>1.066519494146573</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -653,13 +653,13 @@
         <v>0.4</v>
       </c>
       <c r="F10">
-        <v>0.8905025278273487</v>
+        <v>6.721049053250442</v>
       </c>
       <c r="G10">
-        <v>1.268656107263002</v>
+        <v>9.576702254589486</v>
       </c>
       <c r="H10">
-        <v>1.766383379033806</v>
+        <v>13.33149367683216</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -667,13 +667,13 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>0.06914989769496444</v>
+        <v>0.5226457051226497</v>
       </c>
       <c r="B11">
-        <v>0.09607769893865244</v>
+        <v>0.7261781790043775</v>
       </c>
       <c r="C11">
-        <v>0.1359538900788854</v>
+        <v>1.024370025718724</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -682,13 +682,13 @@
         <v>0.5</v>
       </c>
       <c r="F11">
-        <v>0.8643737211870555</v>
+        <v>6.533071314033122</v>
       </c>
       <c r="G11">
-        <v>1.200971236733156</v>
+        <v>9.07722723755472</v>
       </c>
       <c r="H11">
-        <v>1.699423625986067</v>
+        <v>12.80462532148405</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -696,13 +696,13 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.06019765122578027</v>
+        <v>0.4456419378098018</v>
       </c>
       <c r="B12">
-        <v>0.09443983285431504</v>
+        <v>0.6996435428531131</v>
       </c>
       <c r="C12">
-        <v>0.139193665333013</v>
+        <v>1.035093995400013</v>
       </c>
       <c r="D12">
         <v>1.5</v>
@@ -711,13 +711,13 @@
         <v>0.1</v>
       </c>
       <c r="F12">
-        <v>0.7524706403222534</v>
+        <v>5.570524222622523</v>
       </c>
       <c r="G12">
-        <v>1.180497910678938</v>
+        <v>8.745544285663915</v>
       </c>
       <c r="H12">
-        <v>1.739920816662663</v>
+        <v>12.93867494250016</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -725,13 +725,13 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>0.06684095066848539</v>
+        <v>0.4956875237435419</v>
       </c>
       <c r="B13">
-        <v>0.09578472402105506</v>
+        <v>0.7104069381286766</v>
       </c>
       <c r="C13">
-        <v>0.1347615692429486</v>
+        <v>0.9996917777606136</v>
       </c>
       <c r="D13">
         <v>1.5</v>
@@ -740,13 +740,13 @@
         <v>0.2</v>
       </c>
       <c r="F13">
-        <v>0.8355118833560675</v>
+        <v>6.196094046794273</v>
       </c>
       <c r="G13">
-        <v>1.197309050263188</v>
+        <v>8.880086726608459</v>
       </c>
       <c r="H13">
-        <v>1.684519615536858</v>
+        <v>12.49614722200767</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -754,13 +754,13 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>0.0649689220586481</v>
+        <v>0.482614249131977</v>
       </c>
       <c r="B14">
-        <v>0.09405237668686604</v>
+        <v>0.6981669189582909</v>
       </c>
       <c r="C14">
-        <v>0.1351362073421849</v>
+        <v>1.002338041186132</v>
       </c>
       <c r="D14">
         <v>1.5</v>
@@ -769,13 +769,13 @@
         <v>0.3</v>
       </c>
       <c r="F14">
-        <v>0.8121115257331012</v>
+        <v>6.032678114149713</v>
       </c>
       <c r="G14">
-        <v>1.175654708585826</v>
+        <v>8.727086486978635</v>
       </c>
       <c r="H14">
-        <v>1.689202591777311</v>
+        <v>12.52922551482665</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -783,13 +783,13 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>0.06467549041552424</v>
+        <v>0.4805680690961572</v>
       </c>
       <c r="B15">
-        <v>0.09243719244204827</v>
+        <v>0.6864015736396234</v>
       </c>
       <c r="C15">
-        <v>0.1286148765236603</v>
+        <v>0.9538839914197208</v>
       </c>
       <c r="D15">
         <v>1.5</v>
@@ -798,13 +798,13 @@
         <v>0.4</v>
       </c>
       <c r="F15">
-        <v>0.8084436301940531</v>
+        <v>6.007100863701965</v>
       </c>
       <c r="G15">
-        <v>1.155464905525604</v>
+        <v>8.580019670495293</v>
       </c>
       <c r="H15">
-        <v>1.607685956545753</v>
+        <v>11.92354989274651</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -812,13 +812,13 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>0.06661374313142183</v>
+        <v>0.4950556010716117</v>
       </c>
       <c r="B16">
-        <v>0.09611618287161476</v>
+        <v>0.7132841148760207</v>
       </c>
       <c r="C16">
-        <v>0.1366655424434991</v>
+        <v>1.011660577127409</v>
       </c>
       <c r="D16">
         <v>1.5</v>
@@ -827,13 +827,13 @@
         <v>0.5</v>
       </c>
       <c r="F16">
-        <v>0.832671789142773</v>
+        <v>6.188195013395147</v>
       </c>
       <c r="G16">
-        <v>1.201452285895185</v>
+        <v>8.916051435950259</v>
       </c>
       <c r="H16">
-        <v>1.708319280543739</v>
+        <v>12.64575721409261</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -841,13 +841,13 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>0.06471235354947354</v>
+        <v>0.4739062991576363</v>
       </c>
       <c r="B17">
-        <v>0.09828886906283169</v>
+        <v>0.7197453285795647</v>
       </c>
       <c r="C17">
-        <v>0.145400952350215</v>
+        <v>1.066038724886622</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -856,13 +856,13 @@
         <v>0.1</v>
       </c>
       <c r="F17">
-        <v>0.8089044193684192</v>
+        <v>5.923828739470454</v>
       </c>
       <c r="G17">
-        <v>1.228610863285396</v>
+        <v>8.996816607244559</v>
       </c>
       <c r="H17">
-        <v>1.817511904377688</v>
+        <v>13.32548406108278</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -870,13 +870,13 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>0.06921025483710759</v>
+        <v>0.5077067055846405</v>
       </c>
       <c r="B18">
-        <v>0.09957089253773613</v>
+        <v>0.7300512349507933</v>
       </c>
       <c r="C18">
-        <v>0.1452724293820876</v>
+        <v>1.063896838518312</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -885,13 +885,13 @@
         <v>0.2</v>
       </c>
       <c r="F18">
-        <v>0.8651281854638448</v>
+        <v>6.346333819808007</v>
       </c>
       <c r="G18">
-        <v>1.244636156721702</v>
+        <v>9.125640436884916</v>
       </c>
       <c r="H18">
-        <v>1.815905367276095</v>
+        <v>13.2987104814789</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -899,13 +899,13 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>0.07075575856970104</v>
+        <v>0.5185275215718483</v>
       </c>
       <c r="B19">
-        <v>0.09996506331094487</v>
+        <v>0.7320338455880704</v>
       </c>
       <c r="C19">
-        <v>0.1387133697667439</v>
+        <v>1.013505157979912</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -914,13 +914,13 @@
         <v>0.3</v>
       </c>
       <c r="F19">
-        <v>0.884446982121263</v>
+        <v>6.481594019648104</v>
       </c>
       <c r="G19">
-        <v>1.249563291386811</v>
+        <v>9.150423069850881</v>
       </c>
       <c r="H19">
-        <v>1.733917122084299</v>
+        <v>12.6688144747489</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -928,13 +928,13 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>0.07045076973805843</v>
+        <v>0.5162010662617995</v>
       </c>
       <c r="B20">
-        <v>0.09990468490843527</v>
+        <v>0.731309504015428</v>
       </c>
       <c r="C20">
-        <v>0.1384090687937913</v>
+        <v>1.008607704333333</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -943,13 +943,13 @@
         <v>0.4</v>
       </c>
       <c r="F20">
-        <v>0.8806346217257304</v>
+        <v>6.452513328272494</v>
       </c>
       <c r="G20">
-        <v>1.248808561355441</v>
+        <v>9.141368800192851</v>
       </c>
       <c r="H20">
-        <v>1.730113359922391</v>
+        <v>12.60759630416666</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -957,13 +957,13 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>0.06876187967773499</v>
+        <v>0.5038225393554137</v>
       </c>
       <c r="B21">
-        <v>0.09647678673639193</v>
+        <v>0.7055728342076812</v>
       </c>
       <c r="C21">
-        <v>0.1348377729116767</v>
+        <v>0.9833251367112912</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -972,13 +972,13 @@
         <v>0.5</v>
       </c>
       <c r="F21">
-        <v>0.8595234959716874</v>
+        <v>6.297781741942671</v>
       </c>
       <c r="G21">
-        <v>1.205959834204899</v>
+        <v>8.819660427596016</v>
       </c>
       <c r="H21">
-        <v>1.685472161395959</v>
+        <v>12.29156420889114</v>
       </c>
       <c r="I21">
         <v>1</v>

--- a/output/Tables/Linear/Modal shift/modalshift_1€_km_duration.xlsx
+++ b/output/Tables/Linear/Modal shift/modalshift_1€_km_duration.xlsx
@@ -406,13 +406,13 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.3433584619329219</v>
+        <v>0.3605138527068082</v>
       </c>
       <c r="B2">
-        <v>0.7104552181894799</v>
+        <v>0.7447533724906458</v>
       </c>
       <c r="C2">
-        <v>1.433690731589519</v>
+        <v>1.52921935532231</v>
       </c>
       <c r="D2">
         <v>0.5</v>
@@ -421,13 +421,13 @@
         <v>0.1</v>
       </c>
       <c r="F2">
-        <v>4.291980774161525</v>
+        <v>4.506423158835103</v>
       </c>
       <c r="G2">
-        <v>8.880690227368499</v>
+        <v>9.309417156133073</v>
       </c>
       <c r="H2">
-        <v>17.92113414486898</v>
+        <v>19.11524194152888</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -435,13 +435,13 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.4228076976280861</v>
+        <v>0.4429854782011047</v>
       </c>
       <c r="B3">
-        <v>0.7414621157160803</v>
+        <v>0.779806283139084</v>
       </c>
       <c r="C3">
-        <v>1.294165742103767</v>
+        <v>1.365045851388863</v>
       </c>
       <c r="D3">
         <v>0.5</v>
@@ -450,13 +450,13 @@
         <v>0.2</v>
       </c>
       <c r="F3">
-        <v>5.285096220351077</v>
+        <v>5.537318477513809</v>
       </c>
       <c r="G3">
-        <v>9.268276446451004</v>
+        <v>9.74757853923855</v>
       </c>
       <c r="H3">
-        <v>16.17707177629709</v>
+        <v>17.06307314236079</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -464,13 +464,13 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.4485078885751546</v>
+        <v>0.4692744981171397</v>
       </c>
       <c r="B4">
-        <v>0.7311925264267752</v>
+        <v>0.7656904982672911</v>
       </c>
       <c r="C4">
-        <v>1.169729586052255</v>
+        <v>1.22659643586841</v>
       </c>
       <c r="D4">
         <v>0.5</v>
@@ -479,13 +479,13 @@
         <v>0.3</v>
       </c>
       <c r="F4">
-        <v>5.606348607189433</v>
+        <v>5.865931226464246</v>
       </c>
       <c r="G4">
-        <v>9.13990658033469</v>
+        <v>9.571131228341139</v>
       </c>
       <c r="H4">
-        <v>14.62161982565318</v>
+        <v>15.33245544835512</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -493,13 +493,13 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.4846462461447995</v>
+        <v>0.5068813018891939</v>
       </c>
       <c r="B5">
-        <v>0.7579344187453106</v>
+        <v>0.7938180821547905</v>
       </c>
       <c r="C5">
-        <v>1.160427457225792</v>
+        <v>1.219752144791035</v>
       </c>
       <c r="D5">
         <v>0.5</v>
@@ -508,13 +508,13 @@
         <v>0.4</v>
       </c>
       <c r="F5">
-        <v>6.058078076809994</v>
+        <v>6.336016273614924</v>
       </c>
       <c r="G5">
-        <v>9.474180234316384</v>
+        <v>9.922726026934882</v>
       </c>
       <c r="H5">
-        <v>14.50534321532241</v>
+        <v>15.24690180988794</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -522,13 +522,13 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.5084450273982659</v>
+        <v>0.5332568210052117</v>
       </c>
       <c r="B6">
-        <v>0.7860827938451</v>
+        <v>0.825422382951728</v>
       </c>
       <c r="C6">
-        <v>1.219586832383688</v>
+        <v>1.282936857763311</v>
       </c>
       <c r="D6">
         <v>0.5</v>
@@ -537,13 +537,13 @@
         <v>0.5</v>
       </c>
       <c r="F6">
-        <v>6.355562842478324</v>
+        <v>6.665710262565145</v>
       </c>
       <c r="G6">
-        <v>9.826034923063752</v>
+        <v>10.3177797868966</v>
       </c>
       <c r="H6">
-        <v>15.2448354047961</v>
+        <v>16.03671072204139</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -551,13 +551,13 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>0.4450289131175555</v>
+        <v>0.4681171957384757</v>
       </c>
       <c r="B7">
-        <v>0.7147115714952822</v>
+        <v>0.7506644551133943</v>
       </c>
       <c r="C7">
-        <v>1.130249774204242</v>
+        <v>1.181257630985697</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -566,13 +566,13 @@
         <v>0.1</v>
       </c>
       <c r="F7">
-        <v>5.562861413969444</v>
+        <v>5.851464946730946</v>
       </c>
       <c r="G7">
-        <v>8.933894643691028</v>
+        <v>9.38330568891743</v>
       </c>
       <c r="H7">
-        <v>14.12812217755303</v>
+        <v>14.76572038732121</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -580,13 +580,13 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.4934205400589566</v>
+        <v>0.5209260019664341</v>
       </c>
       <c r="B8">
-        <v>0.7378978598019137</v>
+        <v>0.7776401093097633</v>
       </c>
       <c r="C8">
-        <v>1.084353445681718</v>
+        <v>1.138324730854653</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -595,13 +595,13 @@
         <v>0.2</v>
       </c>
       <c r="F8">
-        <v>6.167756750736958</v>
+        <v>6.511575024580426</v>
       </c>
       <c r="G8">
-        <v>9.223723247523921</v>
+        <v>9.720501366372043</v>
       </c>
       <c r="H8">
-        <v>13.55441807102148</v>
+        <v>14.22905913568316</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -609,13 +609,13 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>0.5046274758401293</v>
+        <v>0.5307543304154433</v>
       </c>
       <c r="B9">
-        <v>0.7152006797290793</v>
+        <v>0.7506678511984306</v>
       </c>
       <c r="C9">
-        <v>0.9823628934508293</v>
+        <v>1.030735922169193</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -624,13 +624,13 @@
         <v>0.3</v>
       </c>
       <c r="F9">
-        <v>6.307843448001617</v>
+        <v>6.634429130193041</v>
       </c>
       <c r="G9">
-        <v>8.940008496613492</v>
+        <v>9.383348139980383</v>
       </c>
       <c r="H9">
-        <v>12.27953616813537</v>
+        <v>12.88419902711491</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -638,13 +638,13 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>0.5376839242600353</v>
+        <v>0.5638497088389954</v>
       </c>
       <c r="B10">
-        <v>0.7661361803671589</v>
+        <v>0.8057597638679497</v>
       </c>
       <c r="C10">
-        <v>1.066519494146573</v>
+        <v>1.116793244963988</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -653,13 +653,13 @@
         <v>0.4</v>
       </c>
       <c r="F10">
-        <v>6.721049053250442</v>
+        <v>7.048121360487443</v>
       </c>
       <c r="G10">
-        <v>9.576702254589486</v>
+        <v>10.07199704834937</v>
       </c>
       <c r="H10">
-        <v>13.33149367683216</v>
+        <v>13.95991556204985</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -667,13 +667,13 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>0.5226457051226497</v>
+        <v>0.5507498831068131</v>
       </c>
       <c r="B11">
-        <v>0.7261781790043775</v>
+        <v>0.7641101583270067</v>
       </c>
       <c r="C11">
-        <v>1.024370025718724</v>
+        <v>1.072796360042624</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -682,13 +682,13 @@
         <v>0.5</v>
       </c>
       <c r="F11">
-        <v>6.533071314033122</v>
+        <v>6.884373538835164</v>
       </c>
       <c r="G11">
-        <v>9.07722723755472</v>
+        <v>9.551376979087584</v>
       </c>
       <c r="H11">
-        <v>12.80462532148405</v>
+        <v>13.4099545005328</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -696,13 +696,13 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.4456419378098018</v>
+        <v>0.4703866800690593</v>
       </c>
       <c r="B12">
-        <v>0.6996435428531131</v>
+        <v>0.7378797688800476</v>
       </c>
       <c r="C12">
-        <v>1.035093995400013</v>
+        <v>1.086868561979809</v>
       </c>
       <c r="D12">
         <v>1.5</v>
@@ -711,13 +711,13 @@
         <v>0.1</v>
       </c>
       <c r="F12">
-        <v>5.570524222622523</v>
+        <v>5.879833500863241</v>
       </c>
       <c r="G12">
-        <v>8.745544285663915</v>
+        <v>9.223497111000595</v>
       </c>
       <c r="H12">
-        <v>12.93867494250016</v>
+        <v>13.58585702474761</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -725,13 +725,13 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>0.4956875237435419</v>
+        <v>0.5224936082113186</v>
       </c>
       <c r="B13">
-        <v>0.7104069381286766</v>
+        <v>0.7478841580745241</v>
       </c>
       <c r="C13">
-        <v>0.9996917777606136</v>
+        <v>1.049970658282293</v>
       </c>
       <c r="D13">
         <v>1.5</v>
@@ -740,13 +740,13 @@
         <v>0.2</v>
       </c>
       <c r="F13">
-        <v>6.196094046794273</v>
+        <v>6.531170102641483</v>
       </c>
       <c r="G13">
-        <v>8.880086726608459</v>
+        <v>9.348551975931553</v>
       </c>
       <c r="H13">
-        <v>12.49614722200767</v>
+        <v>13.12463322852866</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -754,13 +754,13 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>0.482614249131977</v>
+        <v>0.5087727046538939</v>
       </c>
       <c r="B14">
-        <v>0.6981669189582909</v>
+        <v>0.7338206502660209</v>
       </c>
       <c r="C14">
-        <v>1.002338041186132</v>
+        <v>1.050844470743674</v>
       </c>
       <c r="D14">
         <v>1.5</v>
@@ -769,13 +769,13 @@
         <v>0.3</v>
       </c>
       <c r="F14">
-        <v>6.032678114149713</v>
+        <v>6.359658808173674</v>
       </c>
       <c r="G14">
-        <v>8.727086486978635</v>
+        <v>9.172758128325263</v>
       </c>
       <c r="H14">
-        <v>12.52922551482665</v>
+        <v>13.13555588429593</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -783,13 +783,13 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>0.4805680690961572</v>
+        <v>0.5075030488692972</v>
       </c>
       <c r="B15">
-        <v>0.6864015736396234</v>
+        <v>0.7227052543659698</v>
       </c>
       <c r="C15">
-        <v>0.9538839914197208</v>
+        <v>1.001504348650788</v>
       </c>
       <c r="D15">
         <v>1.5</v>
@@ -798,13 +798,13 @@
         <v>0.4</v>
       </c>
       <c r="F15">
-        <v>6.007100863701965</v>
+        <v>6.343788110866216</v>
       </c>
       <c r="G15">
-        <v>8.580019670495293</v>
+        <v>9.033815679574623</v>
       </c>
       <c r="H15">
-        <v>11.92354989274651</v>
+        <v>12.51880435813485</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -812,13 +812,13 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>0.4950556010716117</v>
+        <v>0.5216105818413365</v>
       </c>
       <c r="B16">
-        <v>0.7132841148760207</v>
+        <v>0.7508698900811643</v>
       </c>
       <c r="C16">
-        <v>1.011660577127409</v>
+        <v>1.059529842732992</v>
       </c>
       <c r="D16">
         <v>1.5</v>
@@ -827,13 +827,13 @@
         <v>0.5</v>
       </c>
       <c r="F16">
-        <v>6.188195013395147</v>
+        <v>6.520132273016706</v>
       </c>
       <c r="G16">
-        <v>8.916051435950259</v>
+        <v>9.385873626014554</v>
       </c>
       <c r="H16">
-        <v>12.64575721409261</v>
+        <v>13.2441230341624</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -841,13 +841,13 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>0.4739062991576363</v>
+        <v>0.4928782744463602</v>
       </c>
       <c r="B17">
-        <v>0.7197453285795647</v>
+        <v>0.7485946771424433</v>
       </c>
       <c r="C17">
-        <v>1.066038724886622</v>
+        <v>1.109020172352507</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -856,13 +856,13 @@
         <v>0.1</v>
       </c>
       <c r="F17">
-        <v>5.923828739470454</v>
+        <v>6.160978430579504</v>
       </c>
       <c r="G17">
-        <v>8.996816607244559</v>
+        <v>9.357433464280541</v>
       </c>
       <c r="H17">
-        <v>13.32548406108278</v>
+        <v>13.86275215440634</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -870,13 +870,13 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>0.5077067055846405</v>
+        <v>0.5293964679997958</v>
       </c>
       <c r="B18">
-        <v>0.7300512349507933</v>
+        <v>0.7604028945639671</v>
       </c>
       <c r="C18">
-        <v>1.063896838518312</v>
+        <v>1.106884538342163</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -885,13 +885,13 @@
         <v>0.2</v>
       </c>
       <c r="F18">
-        <v>6.346333819808007</v>
+        <v>6.617455849997448</v>
       </c>
       <c r="G18">
-        <v>9.125640436884916</v>
+        <v>9.50503618204959</v>
       </c>
       <c r="H18">
-        <v>13.2987104814789</v>
+        <v>13.83605672927703</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -899,13 +899,13 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>0.5185275215718483</v>
+        <v>0.5404095365636639</v>
       </c>
       <c r="B19">
-        <v>0.7320338455880704</v>
+        <v>0.7624702751825029</v>
       </c>
       <c r="C19">
-        <v>1.013505157979912</v>
+        <v>1.054622065765454</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -914,13 +914,13 @@
         <v>0.3</v>
       </c>
       <c r="F19">
-        <v>6.481594019648104</v>
+        <v>6.755119207045799</v>
       </c>
       <c r="G19">
-        <v>9.150423069850881</v>
+        <v>9.530878439781286</v>
       </c>
       <c r="H19">
-        <v>12.6688144747489</v>
+        <v>13.18277582206818</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -928,13 +928,13 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>0.5162010662617995</v>
+        <v>0.5379852648550546</v>
       </c>
       <c r="B20">
-        <v>0.731309504015428</v>
+        <v>0.7618833022293692</v>
       </c>
       <c r="C20">
-        <v>1.008607704333333</v>
+        <v>1.050347000664816</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -943,13 +943,13 @@
         <v>0.4</v>
       </c>
       <c r="F20">
-        <v>6.452513328272494</v>
+        <v>6.724815810688183</v>
       </c>
       <c r="G20">
-        <v>9.141368800192851</v>
+        <v>9.523541277867114</v>
       </c>
       <c r="H20">
-        <v>12.60759630416666</v>
+        <v>13.1293375083102</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -957,13 +957,13 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>0.5038225393554137</v>
+        <v>0.5251040758088155</v>
       </c>
       <c r="B21">
-        <v>0.7055728342076812</v>
+        <v>0.7347701982836977</v>
       </c>
       <c r="C21">
-        <v>0.9833251367112912</v>
+        <v>1.022923947327896</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -972,13 +972,13 @@
         <v>0.5</v>
       </c>
       <c r="F21">
-        <v>6.297781741942671</v>
+        <v>6.563800947610194</v>
       </c>
       <c r="G21">
-        <v>8.819660427596016</v>
+        <v>9.184627478546222</v>
       </c>
       <c r="H21">
-        <v>12.29156420889114</v>
+        <v>12.7865493415987</v>
       </c>
       <c r="I21">
         <v>1</v>
